--- a/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
+++ b/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NextCloud\TestCases\ITower-TestCase\集成测试\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE79B41-BCB7-4176-8D51-B1477A407499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38254438-74EA-4F83-9B79-216985876B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,48 +99,6 @@
   </si>
   <si>
     <t>7 辅助热源 x1 （参考实际需求）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调机开机、关机
-发生事件后的状态同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1 浏览器打开网页，在测试全过程中查看数据使用
-    * 用运维账号登录平台。
-    * 一个网页打开平台 设备管理-&gt;站点设备信息-&gt;
-       目标站点-&gt;数据报表-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设备数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-&gt;目标控制器-&gt;运行时长</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 手动将空调机开机(按下空调机面板/遥控器上的开机键)
-    * 此步骤需要记录操作的时间 "时:分:秒"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -158,91 +116,6 @@
        此值高于实测空调待机时回风温度，
        且在空调制冷能力范围)
     * 工作参数下限补偿值: 0 (默认)</t>
-  </si>
-  <si>
-    <t>控制器、采集器、空调等所有设备通电，并处于工作状态
-平台可查所有设备已在线
-回风温度传感器位置:
-  * 安装在距离空调出风口1-1.5m处，空调出风直吹回风
-     温度传感器
-登录平台，"设备管理" -&gt; "在运行控制器维护" 
-  单击“查询”， 在查询列表中选择目标控制器.
-  在控制器的“节能配置”中设置：
-    * 工作温度上限： 28℃
-    * 工作参数上限补偿值: 0 (默认)
-    * 工作温度下限： 19℃ (参考测试环境，
-       此值高于实测空调待机时回风温度，
-       且在空调制冷能力范围)
-    * 工作参数下限补偿值: 0 (默认)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调机分闸、合闸
-发生事件后的状态同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2 将平台页面滑动至最下方(彩色多数据视图)，关注图中以下内容:
-    * 空调通、断电曲线(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF388600"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>绿色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2 将平台页面滑动至最下方(彩色多数据视图)，关注图中以下内容:
-    * 空调开、关机线条 (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF787800"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黄色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -376,9 +249,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>步骤2后，查看页面:
-    * 图表中的</t>
+    <t>用电数据-1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调机-开/关机
+用电数据同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调机-分/合闸
+用电数据同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 目标站点存在
+* 目标控制器存在
+*  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 浏览器打开网页 (运维账号登录平台)
+    * </t>
     </r>
     <r>
       <rPr>
@@ -390,18 +283,20 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>绿色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>线条当前时刻位置处于</t>
+      <t>查看采集器状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 
+              设备管理-&gt;站点设备信息-&gt;目标站点-&gt;
+              数据报表-&gt;</t>
     </r>
     <r>
       <rPr>
@@ -413,26 +308,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>通电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>位置</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3 浏览器打开网页
-    * 用运维账号登录平台。
-    * 依次打开进入: 设备管理-&gt;</t>
+      <t>设备数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;目标控制器-&gt;</t>
     </r>
     <r>
       <rPr>
@@ -444,35 +331,14 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>在运行控制器维护</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;
-       目标控制器-&gt;运行状态      </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步骤3中显示: 
-    * 空调通断电状态: 通电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4  在“空调通电状态" 处勾选”断电“， 单击”保存并下发“按钮
-    * 记录单击”保存并下发“按钮的时间 时:分:秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>步骤4后, 回到</t>
+      <t>运行时长</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 浏览器打开网页 (运维账号登录平台)
+    * </t>
     </r>
     <r>
       <rPr>
@@ -484,19 +350,20 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>步骤1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>所打开的页面。
-    * 查看彩色图标中</t>
+      <t>查看用电数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 
+              设备管理-&gt;站点设备信息-&gt;目标站点-&gt;
+              数据报表-&gt;</t>
     </r>
     <r>
       <rPr>
@@ -508,19 +375,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>绿色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>线条的位置
-      步骤4记录的时间之后20秒内，可以看到</t>
+      <t>用电数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;目标控制器-&gt;</t>
     </r>
     <r>
       <rPr>
@@ -532,54 +398,43 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>绿色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>线条的位置从</t>
+      <t>当日实时用电数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3 将平台页面滑动至最下方(彩色多数据视图)，关注图中以下内容:
+    * 空调开、关机线条 (</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>变为</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>断电</t>
-    </r>
+        <color rgb="FF787800"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黄色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 手动将空调机开机(按下空调机面板/遥控器上的开机键)
+    * 此步骤需要记录操作的时间 "时:分:秒"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +442,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,15 +518,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF388600"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color rgb="FF787800"/>
       <name val="等线"/>
       <family val="3"/>
@@ -735,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -832,41 +678,44 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,18 +1002,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="2" width="10.546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.84765625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="46.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.796875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="49.796875" customWidth="1"/>
     <col min="6" max="6" width="40.34765625" customWidth="1"/>
     <col min="7" max="7" width="5.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.796875" customWidth="1"/>
@@ -1172,19 +1021,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="A1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="38" t="s">
@@ -1196,7 +1045,7 @@
       <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="44"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="38" t="s">
         <v>8</v>
       </c>
@@ -1206,7 +1055,7 @@
       <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="44"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="38" t="s">
         <v>12</v>
       </c>
@@ -1216,7 +1065,7 @@
       <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="44"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="38" t="s">
         <v>13</v>
       </c>
@@ -1226,7 +1075,7 @@
       <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="44"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="38" t="s">
         <v>10</v>
       </c>
@@ -1236,7 +1085,7 @@
       <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="44"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="38" t="s">
         <v>11</v>
       </c>
@@ -1246,7 +1095,7 @@
       <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="44"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="38" t="s">
         <v>17</v>
       </c>
@@ -1256,7 +1105,7 @@
       <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="44"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="38" t="s">
         <v>15</v>
       </c>
@@ -1266,7 +1115,7 @@
       <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="44"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="38" t="s">
         <v>16</v>
       </c>
@@ -1276,7 +1125,7 @@
       <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="44"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
@@ -1286,11 +1135,11 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1298,9 +1147,9 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="45"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1308,9 +1157,9 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="45"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1353,289 +1202,310 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="40">
-        <v>1000</v>
-      </c>
-      <c r="B17" s="36">
+    <row r="17" spans="1:11" ht="60.9" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="41">
+        <v>1</v>
+      </c>
+      <c r="B17" s="43">
         <v>0</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="46" t="s">
-        <v>22</v>
-      </c>
       <c r="E17" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="40"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="46"/>
+    <row r="18" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="41"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="F18" s="14"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="45.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="40"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="17" t="s">
-        <v>20</v>
+    <row r="19" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="41"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="40"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="17">
-        <v>4</v>
-      </c>
-      <c r="F20" s="18"/>
+    <row r="20" spans="1:11" ht="45.9" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="41"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="40"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="H21" s="20"/>
-      <c r="K21" s="25"/>
-    </row>
-    <row r="22" spans="1:11" ht="70.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="39">
-        <v>1001</v>
-      </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37" t="s">
+    <row r="21" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="41"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="17">
+        <v>5</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="41"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="H22" s="20"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="1:11" ht="70.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="46">
+        <v>1101</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" ht="71.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="39"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
       <c r="D23" s="38"/>
-      <c r="E23" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="39"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
+    <row r="24" spans="1:11" ht="71.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="46"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="38"/>
-      <c r="E24" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="56.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="39"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
+    <row r="25" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="46"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="38"/>
-      <c r="E25" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>33</v>
-      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="29"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A27" s="42">
+    <row r="26" spans="1:11" ht="56.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="46"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="14"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="29"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A28" s="47">
         <v>3</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A28" s="42"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="38"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A29" s="42"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="38"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A30" s="42"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="38"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="18"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A31" s="42"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="38"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A32" s="42"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="38"/>
       <c r="E32" s="17"/>
-      <c r="F32" s="14"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A33" s="42"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="38"/>
       <c r="E33" s="17"/>
       <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A34" s="42"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="38"/>
       <c r="E34" s="17"/>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A35" s="42"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="37"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="38"/>
       <c r="E35" s="17"/>
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A36" s="42"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="38"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A37" s="42"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="37"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="38"/>
       <c r="E37" s="17"/>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="32"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A39" s="41">
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A38" s="47"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="32"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A40" s="45">
         <v>4</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A40" s="41"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="26"/>
       <c r="E40" s="15"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A41" s="41"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="14"/>
-    </row>
-    <row r="42" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="35"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B43" s="36"/>
-      <c r="C43" s="37"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A42" s="45"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="35"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="44"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B47" s="36"/>
-      <c r="C47" s="37"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="44"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="B28:B38"/>
+    <mergeCell ref="C28:C38"/>
+    <mergeCell ref="D28:D38"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="B2:F2"/>
@@ -1647,29 +1517,6 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="A27:A37"/>
-    <mergeCell ref="B27:B37"/>
-    <mergeCell ref="C27:C37"/>
-    <mergeCell ref="D27:D37"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
+++ b/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38254438-74EA-4F83-9B79-216985876B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DCF984-C344-4DCC-9936-7AEA5DBD450B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,175 +102,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>控制器、采集器、空调等所有设备通电，并处于工作状态
-平台可查所有设备已在线
-回风温度传感器位置:
-  * 安装在距离空调出风口1-1.5m处，空调出风直吹回风
-     温度传感器
-登录平台，"设备管理" -&gt; "在运行控制器维护" 
-  单击“查询”， 在查询列表中选择目标控制器.
-  在控制器的“节能配置”中设置：
-    * 工作温度上限： 28℃
-    * 工作参数上限补偿值: 0 (默认)
-    * 工作温度下限： 19℃ (参考测试环境，
-       此值高于实测空调待机时回风温度，
-       且在空调制冷能力范围)
-    * 工作参数下限补偿值: 0 (默认)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>步骤2后，查看页面:
-    * 图表中的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黄色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>线条当前时刻位置处于"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>关机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"位置</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>步骤3后，查看页面:
-    * 图表中的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黄色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>线条位置处于"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>开机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"位置, 
-       维持约20s后，回到“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>关机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>”位置。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用电数据-1100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调机-开/关机
-用电数据同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>空调机-分/合闸
 用电数据同步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">* 目标站点存在
-* 目标控制器存在
-*  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 浏览器打开网页 (运维账号登录平台)
+    <t>实时用电数据-1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 浏览器同时打开网页 (运维账号登录平台)
     * </t>
     </r>
     <r>
@@ -337,7 +179,116 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">2 浏览器打开网页 (运维账号登录平台)
+      <t xml:space="preserve">1 登录平台(运维账号)，进入  
+    设备管理 -&gt; 在运行控制器维护 -&gt; 
+    选择目标控制器(查询、选择) -&gt; 运行状态。
+2 对目标控制器设置如下:
+    * 空调通电状态: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    * 节能状态: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3 单击 ”保存并下发“ 按钮。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>采集器状态页面:
+    图表中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黄色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线条位置处于"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空调关机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"位置。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 浏览器同时打开网页 (运维账号登录平台)
     * </t>
     </r>
     <r>
@@ -404,8 +355,83 @@
   </si>
   <si>
     <r>
-      <t>3 将平台页面滑动至最下方(彩色多数据视图)，关注图中以下内容:
-    * 空调开、关机线条 (</t>
+      <t>从操作步骤1 至此时，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日实时用电数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中的“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”、“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>功率"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 数据的波形线没有明显波动（尖状波形）。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6 将平台页面滑动至最下方(彩色多数据视图)，关注图中以下内容:
+    * 空调开机、空调关机线条 (</t>
     </r>
     <r>
       <rPr>
@@ -433,8 +459,342 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4 手动将空调机开机(按下空调机面板/遥控器上的开机键)
-    * 此步骤需要记录操作的时间 "时:分:秒"</t>
+    <r>
+      <t>查看采集器状态页面:
+    * 图表中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黄色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线条位置处于"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空调关机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"位置。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">空调机-开/关机
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">实时用电数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同步</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤7操作完成后，30秒内，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子项目前置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 节能设备电源均已接通。
+2 节能设备已正确接入平台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 设置节能参数
+  * 登录平台，"设备管理" -&gt; "在运行控制器维护" 
+  * 单击“查询”， 在查询列表中选择目标控制器.
+  * 在控制器的“节能配置”中设置：
+    * 工作温度上限： 28℃
+    * 工作参数上限补偿值: 0 (默认)
+    * 工作温度下限： 19℃ 
+       (参考测试环境, 此值高于实测空调待机时回风温度，
+       且在空调制冷能力范围)
+    * 工作参数下限补偿值: 0 (默认)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3 控制器、采集器、空调等所有设备通电，
+   并处于工作状态
+4 平台可查所有设备已在线
+5 回风温度传感器位置:
+  * 安装在距离空调出风口1-1.5m处，空调出风直吹回风
+     温度传感器
+6 辅助热源，直吹回风温度传感器。辅助热源默认</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7 开启辅助热源(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>默认关机状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)，对回风温度加热。
+8 空调自动开启制冷模式后，关闭辅助热源。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9 查看步骤5打开的”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日实时用电数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“页。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1 步骤7后，等待回风传感器温度超过28℃后，
+    空调机自动开机制冷。
+2  空调机制冷开启后: 
+    查看</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>采集器状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>页面:
+         图表中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黄色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线条处于"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空调开机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"位置。
+    查看</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">当日实时用电数据:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         制冷启动后20s内”电流“、”功率“ 数据出线明显的     
+         幅度变化(尖状波形-波谷变为波峰)。
+3  步骤8后， 空调机持续制冷, 直至回风温度低于19℃
+    ,空调机停止制冷。
+4  空调机制冷停止后:
+    查看采集器状态页面:
+        图表中的黄色线条位置处于"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空调关机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"位置。
+    查看当日实时用电数据:
+         制冷停止后20s内”电流“、”功率“ 数据出线明显的     
+         幅度变化(由波峰将为波谷)。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +802,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +884,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -581,7 +959,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -678,6 +1056,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -715,6 +1096,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1002,130 +1389,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="2" width="10.546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.84765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.796875" style="13" customWidth="1"/>
     <col min="5" max="5" width="49.796875" customWidth="1"/>
     <col min="6" max="6" width="40.34765625" customWidth="1"/>
-    <col min="7" max="7" width="5.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
     <col min="8" max="8" width="32.796875" customWidth="1"/>
     <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="A1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
     </row>
     <row r="9" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="37"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
@@ -1135,11 +1522,11 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1147,9 +1534,9 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="39"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1157,9 +1544,9 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="39"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1187,7 +1574,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>2</v>
@@ -1202,308 +1589,327 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="60.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="41">
-        <v>1</v>
-      </c>
-      <c r="B17" s="43">
+    <row r="17" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
+      <c r="A17" s="42">
+        <v>1100</v>
+      </c>
+      <c r="B17" s="44">
         <v>0</v>
       </c>
-      <c r="C17" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>24</v>
+      <c r="C17" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>21</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="41"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="40"/>
+    <row r="18" spans="1:11" ht="100.8" x14ac:dyDescent="0.5">
+      <c r="A18" s="42"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="E18" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="41"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="40"/>
+    <row r="19" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="42"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="E19" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:11" ht="45.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="41"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="17" t="s">
-        <v>28</v>
+    <row r="20" spans="1:11" ht="25.2" x14ac:dyDescent="0.5">
+      <c r="A20" s="42"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="41"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="17">
-        <v>5</v>
-      </c>
-      <c r="F21" s="18"/>
+    <row r="21" spans="1:11" ht="201.6" x14ac:dyDescent="0.5">
+      <c r="A21" s="42"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="41"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="H22" s="20"/>
-      <c r="K22" s="25"/>
-    </row>
-    <row r="23" spans="1:11" ht="70.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="46">
+    <row r="22" spans="1:11" ht="19.8" x14ac:dyDescent="0.5">
+      <c r="A22" s="42"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="42"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="H23" s="20"/>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" spans="1:11" ht="70.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="47">
         <v>1101</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="71.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="46"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="38"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="39"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="46"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="38"/>
+    <row r="25" spans="1:11" ht="71.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="47"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="56.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="46"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="17"/>
+    <row r="26" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="47"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="29"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A28" s="47">
+    <row r="27" spans="1:11" ht="56.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="47"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="14"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="29"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A29" s="48">
         <v>3</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A29" s="47"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="38"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A30" s="47"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="38"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A31" s="47"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="38"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="39"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="18"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A32" s="47"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A33" s="47"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="38"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="14"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A34" s="47"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="38"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="17"/>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A35" s="47"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="38"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="17"/>
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A36" s="47"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="38"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="17"/>
       <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A37" s="47"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="38"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A38" s="47"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="38"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="17"/>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="32"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A40" s="45">
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A39" s="48"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="32"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A41" s="46">
         <v>4</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A41" s="45"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="26"/>
       <c r="E41" s="15"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A42" s="45"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="14"/>
-    </row>
-    <row r="43" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="35"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B44" s="43"/>
-      <c r="C44" s="44"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A43" s="46"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="35"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="45"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B48" s="43"/>
-      <c r="C48" s="44"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="45"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D19:D21"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="C17:C21"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="A28:A38"/>
-    <mergeCell ref="B28:B38"/>
-    <mergeCell ref="C28:C38"/>
-    <mergeCell ref="D28:D38"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A29:A39"/>
+    <mergeCell ref="B29:B39"/>
+    <mergeCell ref="C29:C39"/>
+    <mergeCell ref="D29:D39"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A17:A23"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A1:H1"/>

--- a/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
+++ b/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DCF984-C344-4DCC-9936-7AEA5DBD450B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDD47E0-61C2-49A6-A79A-BFD26FA1215C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1101,7 +1101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1391,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>

--- a/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
+++ b/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDD47E0-61C2-49A6-A79A-BFD26FA1215C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0029F32B-A955-452C-BAC1-93E804517D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,11 +99,6 @@
   </si>
   <si>
     <t>7 辅助热源 x1 （参考实际需求）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调机-分/合闸
-用电数据同步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -539,10 +534,6 @@
       </rPr>
       <t>同步</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步骤7操作完成后，30秒内，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -634,35 +625,6 @@
   </si>
   <si>
     <r>
-      <t>9 查看步骤5打开的”</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当日实时用电数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“页。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>1 步骤7后，等待回风传感器温度超过28℃后，
     空调机自动开机制冷。
 2  空调机制冷开启后: 
@@ -794,6 +756,36 @@
     查看当日实时用电数据:
          制冷停止后20s内”电流“、”功率“ 数据出线明显的     
          幅度变化(由波峰将为波谷)。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">空调机-分/合闸
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">实时用电数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同步</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -959,7 +951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1056,33 +1048,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1094,9 +1083,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1389,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1408,111 +1394,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="A1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="38"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
@@ -1522,11 +1508,11 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1534,9 +1520,9 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="40"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1544,9 +1530,9 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="40"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1574,7 +1560,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>2</v>
@@ -1590,326 +1576,312 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A17" s="42">
+      <c r="A17" s="41">
         <v>1100</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="43">
         <v>0</v>
       </c>
-      <c r="C17" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>30</v>
+      <c r="C17" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>28</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="100.8" x14ac:dyDescent="0.5">
-      <c r="A18" s="42"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="49"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="42"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="41" t="s">
-        <v>31</v>
+      <c r="A19" s="41"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="40" t="s">
+        <v>29</v>
       </c>
       <c r="E19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="25.2" x14ac:dyDescent="0.5">
-      <c r="A20" s="42"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="41"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="201.6" x14ac:dyDescent="0.5">
-      <c r="A21" s="42"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="41"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:11" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A22" s="42"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="42"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="H23" s="20"/>
-      <c r="K23" s="25"/>
-    </row>
-    <row r="24" spans="1:11" ht="70.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="47">
+    <row r="22" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="41"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="H22" s="20"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="1:11" ht="70.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="46">
         <v>1101</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="39"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" ht="71.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="46"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="71.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="47"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="39"/>
+    <row r="25" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="46"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="47"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="14"/>
+    <row r="26" spans="1:11" ht="56.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="46"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="14"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" ht="56.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="47"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="14"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="29"/>
+    <row r="27" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="29"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A28" s="47">
+        <v>3</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A29" s="48">
-        <v>3</v>
-      </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="39"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A30" s="48"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="39"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A31" s="48"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="39"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A32" s="48"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A33" s="48"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="39"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A34" s="48"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="39"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="17"/>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A35" s="48"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="39"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="17"/>
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A36" s="48"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="39"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="17"/>
       <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A37" s="48"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="39"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="17"/>
-      <c r="F37" s="14"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A38" s="48"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="39"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A39" s="48"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="32"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="32"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A40" s="45">
+        <v>4</v>
+      </c>
+      <c r="B40" s="43"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="15"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A41" s="46">
-        <v>4</v>
-      </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="45"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="26"/>
       <c r="E41" s="15"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A42" s="46"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="15"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A43" s="46"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="14"/>
-    </row>
-    <row r="44" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="35"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="35"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="B44" s="43"/>
+      <c r="C44" s="44"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B45" s="44"/>
-      <c r="C45" s="45"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="B48" s="43"/>
+      <c r="C48" s="44"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B49" s="44"/>
-      <c r="C49" s="45"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="C17:C21"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A29:A39"/>
-    <mergeCell ref="B29:B39"/>
-    <mergeCell ref="C29:C39"/>
-    <mergeCell ref="D29:D39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="B28:B38"/>
+    <mergeCell ref="C28:C38"/>
+    <mergeCell ref="D28:D38"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A17:A22"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A1:H1"/>

--- a/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
+++ b/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0029F32B-A955-452C-BAC1-93E804517D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6386867-C599-4022-80D1-821959E9251A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,73 +103,6 @@
   </si>
   <si>
     <t>实时用电数据-1100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4 浏览器同时打开网页 (运维账号登录平台)
-    * </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>查看采集器状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 
-              设备管理-&gt;站点设备信息-&gt;目标站点-&gt;
-              数据报表-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设备数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-&gt;目标控制器-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>运行时长</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -420,89 +353,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 数据的波形线没有明显波动（尖状波形）。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6 将平台页面滑动至最下方(彩色多数据视图)，关注图中以下内容:
-    * 空调开机、空调关机线条 (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF787800"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黄色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>查看采集器状态页面:
-    * 图表中的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黄色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>线条位置处于"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>空调关机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"位置。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -595,7 +445,205 @@
   </si>
   <si>
     <r>
-      <t>7 开启辅助热源(</t>
+      <t xml:space="preserve">空调机-分/合闸
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">实时用电数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同步</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>采集器状态页面:
+    图表中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绿色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线条位置处于"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"位置。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 浏览器同时打开网页 (运维账号登录平台)
+    * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查看采集器状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 
+              设备管理-&gt;站点设备信息-&gt;目标站点-&gt;
+              数据报表-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设备数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;目标控制器-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">运行时长
+              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>滚动页面至最下方</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(彩色多数据视图)，关注图中以下内容:
+                    * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空调开机、空调关机线条</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (黄色)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6 开启辅助热源(</t>
     </r>
     <r>
       <rPr>
@@ -619,129 +667,273 @@
         <scheme val="minor"/>
       </rPr>
       <t>)，对回风温度加热。
-8 空调自动开启制冷模式后，关闭辅助热源。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1 步骤7后，等待回风传感器温度超过28℃后，
+7 空调自动开启制冷模式后，关闭辅助热源。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>从操作步骤1 至此时，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日实时用电数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中的“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”、“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>功率"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 数据的波形线无明显波动（尖状波形）。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6 步骤5执行结果无误后执行。
+   执行步骤1、2， 将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空调通电状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置为"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>断电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7 步骤6执行结果无误后执行。
+   执行步骤1、2， 将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空调通电状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置为"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 步骤6后，等待回风传感器温度超过28℃后，
     空调机自动开机制冷。
 2  空调机制冷开启后: 
-    查看</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>采集器状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>页面:
-         图表中的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黄色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>线条处于"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>空调开机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"位置。
-    查看</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">当日实时用电数据:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">         制冷启动后20s内”电流“、”功率“ 数据出线明显的     
+    查看采集器状态页面:
+         图表中的黄色线条处于"空调开机"位置。
+    查看当日实时用电数据:
+         制冷启动后30秒内”电流“、”功率“ 数据出现明显的     
          幅度变化(尖状波形-波谷变为波峰)。
-3  步骤8后， 空调机持续制冷, 直至回风温度低于19℃
+3  步骤7后， 空调机持续制冷, 直至回风温度低于19℃
     ,空调机停止制冷。
 4  空调机制冷停止后:
     查看采集器状态页面:
-        图表中的黄色线条位置处于"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>空调关机</t>
+        图表中的黄色线条位置处于"空调关机"位置。
+    查看当日实时用电数据:
+         制冷停止后30秒内”电流“、”功率“ 数据出现明显的     
+         幅度变化(由波峰将为波谷)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>步骤6后:
+    查看</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>采集器状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>页面:
+         图表中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绿色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线条处于"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>断电</t>
     </r>
     <r>
       <rPr>
@@ -753,39 +945,135 @@
         <scheme val="minor"/>
       </rPr>
       <t>"位置。
-    查看当日实时用电数据:
-         制冷停止后20s内”电流“、”功率“ 数据出线明显的     
-         幅度变化(由波峰将为波谷)。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">空调机-分/合闸
+    查看</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">当日实时用电数据:
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">实时用电数据
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         步骤6执行后30秒内”电流“、”功率“ 数据出现明显的     
+         幅度变化(电流值变为0，功率值变为0)。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>步骤7后:
+    查看</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>采集器状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>页面:
+         图表中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绿色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线条处于"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"位置。
+    查看</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">当日实时用电数据:
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>同步</t>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         步骤7执行后30秒内”电流“、”功率“ 数据出现明显的     
+         幅度变化(电流值非0，功率值非0)。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -794,7 +1082,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -865,15 +1153,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF787800"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -951,7 +1230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1047,6 +1326,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1377,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1387,118 +1672,118 @@
     <col min="3" max="3" width="13.84765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.796875" style="13" customWidth="1"/>
     <col min="5" max="5" width="49.796875" customWidth="1"/>
-    <col min="6" max="6" width="40.34765625" customWidth="1"/>
+    <col min="6" max="6" width="42.59765625" customWidth="1"/>
     <col min="7" max="7" width="16.25" customWidth="1"/>
     <col min="8" max="8" width="32.796875" customWidth="1"/>
     <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="37"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
@@ -1508,11 +1793,11 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1520,9 +1805,9 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="39"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1530,9 +1815,9 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="39"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1560,7 +1845,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>2</v>
@@ -1576,132 +1861,145 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A17" s="41">
+      <c r="A17" s="43">
         <v>1100</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="45">
         <v>0</v>
       </c>
-      <c r="C17" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>28</v>
+      <c r="C17" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>25</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="100.8" x14ac:dyDescent="0.5">
-      <c r="A18" s="41"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="48"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>19</v>
-      </c>
       <c r="F18" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="41"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="40" t="s">
-        <v>29</v>
+    <row r="19" spans="1:11" ht="50.4" x14ac:dyDescent="0.5">
+      <c r="A19" s="43"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="42" t="s">
+        <v>26</v>
       </c>
       <c r="E19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:11" ht="25.2" x14ac:dyDescent="0.5">
-      <c r="A20" s="41"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="14" t="s">
-        <v>24</v>
+    <row r="20" spans="1:11" ht="210.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="43"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:11" ht="201.6" x14ac:dyDescent="0.5">
-      <c r="A21" s="41"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="14" t="s">
+    <row r="21" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="43"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="H21" s="20"/>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
+      <c r="A22" s="48">
+        <v>1101</v>
+      </c>
+      <c r="B22" s="45"/>
+      <c r="C22" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" ht="83.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="48"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="48"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="41"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="H22" s="20"/>
-      <c r="K22" s="25"/>
-    </row>
-    <row r="23" spans="1:11" ht="70.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="46">
-        <v>1101</v>
-      </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="48" t="s">
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.5">
+      <c r="A25" s="48"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="71.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="46"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="46"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="56.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="46"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="14"/>
+    <row r="26" spans="1:11" ht="84.9" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="37"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.5">
@@ -1711,92 +2009,92 @@
       <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A28" s="47">
+      <c r="A28" s="49">
         <v>3</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="38"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A29" s="47"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="38"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A30" s="47"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="38"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A31" s="47"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="38"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="14"/>
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A32" s="47"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="38"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A33" s="47"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="38"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="17"/>
       <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A34" s="47"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="38"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="17"/>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A35" s="47"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="38"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="40"/>
       <c r="E35" s="17"/>
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A36" s="47"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="38"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="17"/>
       <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A37" s="47"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="38"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A38" s="47"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="38"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="40"/>
       <c r="E38" s="17"/>
       <c r="F38" s="14"/>
     </row>
@@ -1807,25 +2105,25 @@
       <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A40" s="45">
+      <c r="A40" s="47">
         <v>4</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="44"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="26"/>
       <c r="E40" s="15"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A41" s="45"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="26"/>
       <c r="E41" s="15"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A42" s="45"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
       <c r="E42" s="16"/>
       <c r="F42" s="14"/>
     </row>
@@ -1836,52 +2134,52 @@
       <c r="D43" s="35"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B44" s="43"/>
-      <c r="C44" s="44"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B48" s="43"/>
-      <c r="C48" s="44"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C22:C26"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="C48:C50"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="C40:C42"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D22:D25"/>
     <mergeCell ref="A28:A38"/>
     <mergeCell ref="B28:B38"/>
     <mergeCell ref="C28:C38"/>
     <mergeCell ref="D28:D38"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A17:A21"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A1:H1"/>

--- a/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
+++ b/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6386867-C599-4022-80D1-821959E9251A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA72254-B51A-4887-A6EE-3B707868B977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,36 +353,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 数据的波形线没有明显波动（尖状波形）。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">空调机-开/关机
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">实时用电数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>同步</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -440,36 +410,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">空调机-分/合闸
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">实时用电数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>同步</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1077,12 +1017,39 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>3 控制器、采集器、空调等所有设备通电，
+   并处于工作状态
+4 平台可查所有设备已在线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 设置节能参数
+  * 登录平台，"设备管理" -&gt; "在运行控制器维护" 
+  * 单击“查询”， 在查询列表中选择目标控制器.
+  * 在控制器的“节能配置”中设置：
+    * 工作温度上限： 28℃
+    * 工作参数上限补偿值: 0 (默认)
+    * 工作温度下限： 19℃ 
+       (参考测试环境, 此值高于实测空调待机时回风温度，
+       且在空调制冷能力范围)
+    * 工作参数下限补偿值: 0 (默认)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调机-分/合闸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调机-开/关机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1156,15 +1123,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
@@ -1230,7 +1188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1327,45 +1285,39 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1374,6 +1326,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1662,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1679,111 +1634,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="39"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
@@ -1793,11 +1748,11 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1805,9 +1760,9 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="41"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1815,9 +1770,9 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="41"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1845,7 +1800,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>2</v>
@@ -1861,17 +1816,17 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A17" s="43">
+      <c r="A17" s="41">
         <v>1100</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="43">
         <v>0</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>25</v>
+      <c r="C17" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>24</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>19</v>
@@ -1880,14 +1835,14 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="100.8" x14ac:dyDescent="0.5">
-      <c r="A18" s="43"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="50"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>20</v>
@@ -1896,11 +1851,11 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="50.4" x14ac:dyDescent="0.5">
-      <c r="A19" s="43"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="42" t="s">
-        <v>26</v>
+      <c r="A19" s="41"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="40" t="s">
+        <v>25</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>21</v>
@@ -1912,21 +1867,21 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="210.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="43"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="42"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="43"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="21"/>
@@ -1936,14 +1891,18 @@
       <c r="K21" s="25"/>
     </row>
     <row r="22" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A22" s="48">
+      <c r="A22" s="46">
         <v>1101</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="40"/>
+      <c r="B22" s="43">
+        <v>0</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="E22" s="26" t="s">
         <v>19</v>
       </c>
@@ -1951,54 +1910,58 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="83.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="48"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="40"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="50" t="s">
+        <v>36</v>
+      </c>
       <c r="E23" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="48"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="40"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="38" t="s">
+        <v>37</v>
+      </c>
       <c r="E24" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.5">
+      <c r="A25" s="46"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" ht="84.9" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="46"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.5">
-      <c r="A25" s="48"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" ht="84.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="37"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="F26" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K26" s="2"/>
     </row>
@@ -2009,92 +1972,92 @@
       <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A28" s="49">
+      <c r="A28" s="47">
         <v>3</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="40"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A29" s="49"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="40"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A30" s="49"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="40"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A31" s="49"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="40"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="14"/>
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A32" s="49"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="40"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A33" s="49"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="40"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="17"/>
       <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A34" s="49"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="40"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="17"/>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A35" s="49"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="40"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="17"/>
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A36" s="49"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="40"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="17"/>
       <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A37" s="49"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="40"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A38" s="49"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="40"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="17"/>
       <c r="F38" s="14"/>
     </row>
@@ -2105,25 +2068,25 @@
       <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A40" s="47">
+      <c r="A40" s="45">
         <v>4</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="46"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="26"/>
       <c r="E40" s="15"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A41" s="47"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="26"/>
       <c r="E41" s="15"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A42" s="47"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
       <c r="E42" s="16"/>
       <c r="F42" s="14"/>
     </row>
@@ -2134,32 +2097,35 @@
       <c r="D43" s="35"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B44" s="45"/>
-      <c r="C44" s="46"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="44"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B48" s="45"/>
-      <c r="C48" s="46"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="44"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="34">
     <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="D24:D26"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="C48:C50"/>
     <mergeCell ref="B44:B46"/>
@@ -2170,9 +2136,6 @@
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="C40:C42"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D22:D25"/>
     <mergeCell ref="A28:A38"/>
     <mergeCell ref="B28:B38"/>
     <mergeCell ref="C28:C38"/>

--- a/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
+++ b/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA72254-B51A-4887-A6EE-3B707868B977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316D2488-6A67-4E87-910F-2FBAB5E72E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -608,81 +608,6 @@
       </rPr>
       <t>)，对回风温度加热。
 7 空调自动开启制冷模式后，关闭辅助热源。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>从操作步骤1 至此时，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当日实时用电数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中的“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>电流</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>”、“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>功率"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 数据的波形线无明显波动（尖状波形）。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1037,11 +962,276 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>空调机-分/合闸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调机-开/关机</t>
+    <t>空调机-开/关机
+状态改变后，及时上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调机-分/合闸
+状态改变后，及时上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>从操作步骤1 至此时，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日实时用电数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中的“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”、“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>功率"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 数据的波形线无明显波动（无尖状波形）。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 执行步骤4，查看采集器状态数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6 步骤5执行结果无误后执行。
+   * 执行步骤1、2， 将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空调通电状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置为"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>断电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"。
+   * 记录断电的时间 时:分:秒
+   * 操作完毕后，保持环境70分钟, 再执行步骤7。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查看</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>采集器状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>页面:
+         图表中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绿色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线条处于"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>断电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"位置。
+查看</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">当日实时用电数据:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         步骤6记录的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>断电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间之后第60分钟(±30秒)时刻，经查有”电流“、”功率“ 数据。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调机-分闸状态
+用电数据周期上传</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1132,7 +1322,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1175,6 +1365,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC6C6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1239,9 +1435,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1278,13 +1471,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1312,9 +1498,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1327,9 +1510,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1615,16 +1811,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="2" width="10.546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.84765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.796875" style="13" customWidth="1"/>
     <col min="5" max="5" width="49.796875" customWidth="1"/>
     <col min="6" max="6" width="42.59765625" customWidth="1"/>
@@ -1634,111 +1830,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="37"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
@@ -1748,11 +1944,11 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1760,9 +1956,9 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="39"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1770,9 +1966,9 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="39"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1816,28 +2012,28 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A17" s="41">
+      <c r="A17" s="37">
         <v>1100</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="39">
         <v>0</v>
       </c>
-      <c r="C17" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="49" t="s">
+      <c r="C17" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="100.8" x14ac:dyDescent="0.5">
-      <c r="A18" s="41"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="48"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="14" t="s">
         <v>26</v>
       </c>
@@ -1851,10 +2047,10 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="50.4" x14ac:dyDescent="0.5">
-      <c r="A19" s="41"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="40" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="14" t="s">
@@ -1867,279 +2063,309 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="210.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="41"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="40"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="17" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="41"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="H21" s="20"/>
-      <c r="K21" s="25"/>
-    </row>
-    <row r="22" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A22" s="46">
+    <row r="21" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="37"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="H21" s="19"/>
+      <c r="K21" s="24"/>
+    </row>
+    <row r="22" spans="1:11" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
+      <c r="A23" s="41">
         <v>1101</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B23" s="39">
         <v>0</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C23" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D23" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E23" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" ht="83.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="46"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="50" t="s">
+      <c r="F23" s="14"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" ht="83.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="41"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="41"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.5">
+      <c r="A26" s="41"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" ht="84.9" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="41"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="28"/>
+    </row>
+    <row r="29" spans="1:11" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="42">
+        <v>1102</v>
+      </c>
+      <c r="B30" s="39">
+        <v>0</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.5">
+      <c r="A31" s="42"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F31" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="46"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="14" t="s">
+    </row>
+    <row r="32" spans="1:11" ht="50.4" x14ac:dyDescent="0.5">
+      <c r="A32" s="42"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.5">
-      <c r="A25" s="46"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" ht="84.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="46"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="29"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A28" s="47">
-        <v>3</v>
-      </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A29" s="47"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A30" s="47"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A31" s="47"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A32" s="47"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A33" s="47"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A34" s="47"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A35" s="47"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="14"/>
+      <c r="F32" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="42"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="76.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="42"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="31"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A36" s="47"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="14"/>
+      <c r="A36" s="47">
+        <v>1103</v>
+      </c>
+      <c r="B36" s="39">
+        <v>0</v>
+      </c>
+      <c r="C36" s="45"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37" s="47"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38" s="47"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="17"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="13"/>
+      <c r="E38" s="16"/>
       <c r="F38" s="14"/>
     </row>
-    <row r="39" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="32"/>
+    <row r="39" spans="1:6" s="50" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="48"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A40" s="45">
-        <v>4</v>
-      </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="15"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="40"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A41" s="45"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="15"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A42" s="45"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="14"/>
-    </row>
-    <row r="43" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="35"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B44" s="43"/>
-      <c r="C44" s="44"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="40"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B48" s="43"/>
-      <c r="C48" s="44"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
+  <mergeCells count="32">
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="D25:D27"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="C17:C20"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="A28:A38"/>
-    <mergeCell ref="B28:B38"/>
-    <mergeCell ref="C28:C38"/>
-    <mergeCell ref="D28:D38"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A17:A21"/>

--- a/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
+++ b/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316D2488-6A67-4E87-910F-2FBAB5E72E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AE4E1D-55F5-41F0-AE37-C86347096F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1225,13 +1225,21 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>时间之后第60分钟(±30秒)时刻，经查有”电流“、”功率“ 数据。</t>
+      <t>时间之后第60分钟(±30秒)时刻，
+         经查有”电流“、”功率“ 数据。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>空调机-分闸状态
-用电数据周期上传</t>
+用电数据周期上传
+（每1小时 上传一次）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调机-合闸+关机状态
+用电数据周期上传
+（每30分 上传一次）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1384,7 +1392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1509,9 +1517,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1813,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:B38"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2122,7 +2127,7 @@
       <c r="C23" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="45" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="25" t="s">
@@ -2135,7 +2140,7 @@
       <c r="A24" s="41"/>
       <c r="B24" s="39"/>
       <c r="C24" s="43"/>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="45" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="14" t="s">
@@ -2226,10 +2231,10 @@
       <c r="B30" s="39">
         <v>0</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="45" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="25" t="s">
@@ -2240,8 +2245,8 @@
     <row r="31" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.5">
       <c r="A31" s="42"/>
       <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="46" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="45" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="14" t="s">
@@ -2254,8 +2259,10 @@
     <row r="32" spans="1:11" ht="50.4" x14ac:dyDescent="0.5">
       <c r="A32" s="42"/>
       <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="46"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="34" t="s">
+        <v>36</v>
+      </c>
       <c r="E32" s="14" t="s">
         <v>21</v>
       </c>
@@ -2266,8 +2273,8 @@
     <row r="33" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="42"/>
       <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="46"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="17" t="s">
         <v>41</v>
       </c>
@@ -2278,8 +2285,8 @@
     <row r="34" spans="1:6" ht="76.2" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="42"/>
       <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="46"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="17" t="s">
         <v>40</v>
       </c>
@@ -2294,35 +2301,37 @@
       <c r="D35" s="31"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A36" s="47">
+      <c r="A36" s="46">
         <v>1103</v>
       </c>
       <c r="B36" s="39">
         <v>0</v>
       </c>
-      <c r="C36" s="45"/>
+      <c r="C36" s="43" t="s">
+        <v>44</v>
+      </c>
       <c r="D36" s="25"/>
       <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A37" s="47"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="39"/>
-      <c r="C37" s="13"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="25"/>
       <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A38" s="47"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="39"/>
-      <c r="C38" s="13"/>
+      <c r="C38" s="43"/>
       <c r="E38" s="16"/>
       <c r="F38" s="14"/>
     </row>
-    <row r="39" spans="1:6" s="50" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="48"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49"/>
+    <row r="39" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B40" s="39"/>
@@ -2349,7 +2358,7 @@
       <c r="C46" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="34">
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="A23:A27"/>
@@ -2359,6 +2368,8 @@
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="C40:C42"/>
     <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D32:D34"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="A36:A38"/>

--- a/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
+++ b/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AE4E1D-55F5-41F0-AE37-C86347096F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC13536-6D6B-4485-9FC7-20FA4CB4B028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1818,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>

--- a/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
+++ b/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC13536-6D6B-4485-9FC7-20FA4CB4B028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39C506D-B8A2-4418-A265-C1550E6FE106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1052,8 +1052,157 @@
   </si>
   <si>
     <r>
-      <t>6 步骤5执行结果无误后执行。
-   * 执行步骤1、2， 将</t>
+      <t>查看</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>采集器状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>页面:
+         图表中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绿色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线条处于"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>断电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"位置。
+查看</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">当日实时用电数据:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         步骤6记录的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>断电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间之后第60分钟(±30秒)时刻，
+         经查有”电流“、”功率“ 数据。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调机-分闸状态
+用电数据周期上传
+（每1小时 上传一次）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调机-合闸+关机状态
+用电数据周期上传
+（每30分 上传一次）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节能状态：开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与用例 1102 保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例1102 结果验证成功后，执行此用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6 步骤5执行结果无误后执行以下:
+   * 参照步骤1、2， 将</t>
     </r>
     <r>
       <rPr>
@@ -1106,79 +1255,89 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>查看</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>采集器状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>页面:
-         图表中的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>绿色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>线条处于"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>断电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"位置。
-查看</t>
+    <t>4 步骤3执行完毕后，30分钟后执行步骤5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 登录平台 (运维账号登录平台)
+    * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查看用电数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 
+              设备管理-&gt;站点设备信息-&gt;目标站点-&gt;
+              数据报表-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用电数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;目标控制器-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日实时用电数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 登录平台(运维账号)，进入  
+    设备管理 -&gt; 在运行控制器维护 -&gt; 
+    选择目标控制器(查询、选择) -&gt; 运行状态。
+2 对目标控制器设置如下:
+    * 空调通电状态: 通电
+    * 节能状态: 开启
+3 单击 ”保存并下发“ 按钮。记录操作时间 时:分:秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>看</t>
     </r>
     <r>
       <rPr>
@@ -1202,44 +1361,10 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">         步骤6记录的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>断电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>时间之后第60分钟(±30秒)时刻，
-         经查有”电流“、”功率“ 数据。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调机-分闸状态
-用电数据周期上传
-（每1小时 上传一次）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调机-合闸+关机状态
-用电数据周期上传
-（每30分 上传一次）</t>
+      <t xml:space="preserve">         步骤3记录的操作时间之后第30分钟(±30秒)时刻，
+         经查有”电流“、”功率“ 数据
+(无论数据值多少，有时间点显示在此时间范围即可)。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1438,9 +1563,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1514,6 +1636,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1818,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1835,111 +1960,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="33"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
@@ -1949,11 +2074,13 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+      <c r="B12" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="35"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1961,9 +2088,9 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="35"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1971,9 +2098,9 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="35"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -2017,28 +2144,28 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A17" s="37">
+      <c r="A17" s="36">
         <v>1100</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="38">
         <v>0</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="24" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="100.8" x14ac:dyDescent="0.5">
-      <c r="A18" s="37"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="14" t="s">
         <v>26</v>
       </c>
@@ -2052,10 +2179,10 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="50.4" x14ac:dyDescent="0.5">
-      <c r="A19" s="37"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="36" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="35" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="14" t="s">
@@ -2068,11 +2195,11 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="210.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="37"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="17" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="14" t="s">
@@ -2081,15 +2208,15 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="37"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
-      <c r="H21" s="19"/>
-      <c r="K21" s="24"/>
+    <row r="21" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="36"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="H21" s="18"/>
+      <c r="K21" s="23"/>
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
       <c r="A22" s="6" t="s">
@@ -2118,28 +2245,28 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A23" s="41">
+      <c r="A23" s="40">
         <v>1101</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="38">
         <v>0</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="24" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="14"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="83.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="41"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="45" t="s">
         <v>35</v>
       </c>
@@ -2152,10 +2279,10 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="41"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="34" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="33" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="14" t="s">
@@ -2167,11 +2294,11 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.5">
-      <c r="A26" s="41"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="17" t="s">
+      <c r="A26" s="40"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F26" s="14" t="s">
@@ -2180,11 +2307,11 @@
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="84.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="41"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="17" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F27" s="14" t="s">
@@ -2192,11 +2319,11 @@
       </c>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="28"/>
+    <row r="28" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
       <c r="A29" s="6" t="s">
@@ -2225,27 +2352,27 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="42">
+      <c r="A30" s="41">
         <v>1102</v>
       </c>
-      <c r="B30" s="39">
+      <c r="B30" s="38">
         <v>0</v>
       </c>
-      <c r="C30" s="43" t="s">
-        <v>43</v>
+      <c r="C30" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="D30" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="24" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.5">
-      <c r="A31" s="42"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="43"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="45" t="s">
         <v>35</v>
       </c>
@@ -2257,10 +2384,10 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="50.4" x14ac:dyDescent="0.5">
-      <c r="A32" s="42"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="34" t="s">
+      <c r="A32" s="41"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="33" t="s">
         <v>36</v>
       </c>
       <c r="E32" s="14" t="s">
@@ -2271,61 +2398,74 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="42"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="17" t="s">
-        <v>41</v>
+      <c r="A33" s="41"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="76.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="42"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="17" t="s">
+      <c r="A34" s="41"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="16" t="s">
         <v>40</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="31"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="30"/>
+    </row>
+    <row r="36" spans="1:6" ht="88.2" x14ac:dyDescent="0.5">
       <c r="A36" s="46">
         <v>1103</v>
       </c>
-      <c r="B36" s="39">
-        <v>0</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="15"/>
+      <c r="B36" s="38">
+        <v>1102</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37" s="46"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="B37" s="38"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="46"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="43"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="14"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="42"/>
+      <c r="E38" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="39" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A39" s="47"/>
@@ -2334,28 +2474,28 @@
       <c r="D39" s="48"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="39"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="34">

--- a/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
+++ b/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39C506D-B8A2-4418-A265-C1550E6FE106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3B3F2B-F556-4244-82BA-3F51F965247A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -962,16 +962,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>空调机-开/关机
-状态改变后，及时上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调机-分/合闸
-状态改变后，及时上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>从操作步骤1 至此时，</t>
     </r>
@@ -1173,18 +1163,6 @@
       <t>时间之后第60分钟(±30秒)时刻，
          经查有”电流“、”功率“ 数据。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调机-分闸状态
-用电数据周期上传
-（每1小时 上传一次）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调机-合闸+关机状态
-用电数据周期上传
-（每30分 上传一次）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1367,12 +1345,107 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">空调机_待机期间
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(定义未确定)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+用电数据周期上传
+(每15分钟上传一次)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩机运行期间
+用电数据周期上传
+(每5分钟上传一次)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 步骤3执行完毕后，5分钟后执行步骤5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>看</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">当日实时用电数据:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         步骤3记录的操作时间之后第5分钟(±30秒)时刻，
+         经查有”电流“、”功率“ 数据
+(无论数据值多少，有时间点显示在此时间范围即可)。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调机_合闸+关机状态
+用电数据周期上传
+（每30分 上传一次）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调机_分闸状态
+用电数据周期上传
+（每1小时 上传一次）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调机_分/合闸
+状态改变后，及时上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调机_开/关机
+状态改变后，及时上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1454,8 +1527,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1504,6 +1586,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF975CCB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1517,7 +1611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1601,6 +1695,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1625,9 +1722,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1643,6 +1737,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1656,6 +1753,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1941,10 +2059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1960,111 +2078,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
@@ -2074,13 +2192,13 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="35"/>
+      <c r="B12" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="36"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -2088,9 +2206,9 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="34"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -2098,9 +2216,9 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="34"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -2144,14 +2262,14 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A17" s="36">
+      <c r="A17" s="37">
         <v>1100</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="39">
         <v>0</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D17" s="44" t="s">
         <v>24</v>
@@ -2163,8 +2281,8 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="100.8" x14ac:dyDescent="0.5">
-      <c r="A18" s="36"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="42"/>
       <c r="D18" s="14" t="s">
         <v>26</v>
@@ -2179,10 +2297,10 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="50.4" x14ac:dyDescent="0.5">
-      <c r="A19" s="36"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="42"/>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="14" t="s">
@@ -2195,10 +2313,10 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="210.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="36"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="42"/>
-      <c r="D20" s="35"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="16" t="s">
         <v>29</v>
       </c>
@@ -2209,7 +2327,7 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="36"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="19"/>
@@ -2248,13 +2366,13 @@
       <c r="A23" s="40">
         <v>1101</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="39">
         <v>0</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="46" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="24" t="s">
@@ -2265,9 +2383,9 @@
     </row>
     <row r="24" spans="1:11" ht="83.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="40"/>
-      <c r="B24" s="38"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="42"/>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="46" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="14" t="s">
@@ -2280,24 +2398,24 @@
     </row>
     <row r="25" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="40"/>
-      <c r="B25" s="38"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="42"/>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="34" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.5">
       <c r="A26" s="40"/>
-      <c r="B26" s="38"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="42"/>
-      <c r="D26" s="33"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="16" t="s">
         <v>30</v>
       </c>
@@ -2308,9 +2426,9 @@
     </row>
     <row r="27" spans="1:11" ht="84.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="40"/>
-      <c r="B27" s="38"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="42"/>
-      <c r="D27" s="33"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="16" t="s">
         <v>31</v>
       </c>
@@ -2355,13 +2473,13 @@
       <c r="A30" s="41">
         <v>1102</v>
       </c>
-      <c r="B30" s="38">
+      <c r="B30" s="39">
         <v>0</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="46" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="24" t="s">
@@ -2371,9 +2489,9 @@
     </row>
     <row r="31" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.5">
       <c r="A31" s="41"/>
-      <c r="B31" s="38"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="42"/>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="46" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="14" t="s">
@@ -2385,135 +2503,250 @@
     </row>
     <row r="32" spans="1:11" ht="50.4" x14ac:dyDescent="0.5">
       <c r="A32" s="41"/>
-      <c r="B32" s="38"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="42"/>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="34" t="s">
         <v>36</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="41"/>
-      <c r="B33" s="38"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="42"/>
-      <c r="D33" s="33"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="76.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:8" ht="76.2" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="41"/>
-      <c r="B34" s="38"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="42"/>
-      <c r="D34" s="33"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:6" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A36" s="46">
+    <row r="36" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="88.2" x14ac:dyDescent="0.5">
+      <c r="A37" s="47">
         <v>1103</v>
       </c>
-      <c r="B36" s="38">
+      <c r="B37" s="39">
         <v>1102</v>
       </c>
-      <c r="C36" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="24" t="s">
+      <c r="C37" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A38" s="47"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="47"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="42"/>
+      <c r="E39" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="F39" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="48"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
+    </row>
+    <row r="41" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A41" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="56.4" x14ac:dyDescent="0.5">
+      <c r="A42" s="51">
+        <v>1104</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="51"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="54"/>
+    </row>
+    <row r="44" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="102.3" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="59">
+        <v>1105</v>
+      </c>
+      <c r="B45" s="39">
+        <v>1102</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="59"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A37" s="46"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="46"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="42"/>
-      <c r="E38" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="14" t="s">
+    </row>
+    <row r="47" spans="1:8" ht="63.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="59"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="42"/>
+      <c r="E47" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B40" s="38"/>
-      <c r="C40" s="39"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B44" s="38"/>
-      <c r="C44" s="39"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
+    <row r="48" spans="1:8" s="58" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="56"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="33">
+    <mergeCell ref="A45:A47"/>
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="D25:D27"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C37:C39"/>
     <mergeCell ref="D32:D34"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="B45:B47"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="C17:C20"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="C30:C34"/>

--- a/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
+++ b/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3B3F2B-F556-4244-82BA-3F51F965247A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A816E07-9136-437F-8154-5066051E3F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2061,8 +2061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>

--- a/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
+++ b/docs/source/_static/testcase/集成测试/用电数据-1100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A816E07-9136-437F-8154-5066051E3F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B46F7DC-D4E3-406D-8E91-ED5B8668BF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1537,7 +1537,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1592,12 +1592,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF975CCB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1611,7 +1605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1764,15 +1758,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2061,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D27"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2687,7 +2680,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="102.3" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="59">
+      <c r="A45" s="56">
         <v>1105</v>
       </c>
       <c r="B45" s="39">
@@ -2704,7 +2697,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="59"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="39"/>
       <c r="C46" s="42"/>
       <c r="D46" s="15" t="s">
@@ -2715,7 +2708,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="63.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="59"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="39"/>
       <c r="C47" s="42"/>
       <c r="E47" s="14" t="s">
@@ -2725,11 +2718,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="58" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="56"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="57"/>
+    <row r="48" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="57"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="33">
